--- a/DATA/DATAIN_2024.xlsx
+++ b/DATA/DATAIN_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP SUPPORT\Documents\GitHub\Gibbs-Sampling-VAR\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC78875-7F9E-4772-9B6A-ED34AA3D265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CAF0F-FE5C-466C-A831-E31A592F7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11628" yWindow="1668" windowWidth="10620" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2388" windowWidth="10620" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +61,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +90,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -370,2461 +378,2767 @@
   <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C306"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8.8789800468977447</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2.5779953793480654</v>
       </c>
       <c r="B2">
         <v>9.7508540375140953</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10.268300927123004</v>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4.4824462296589838</v>
       </c>
       <c r="B3">
         <v>7.9483110568838224</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>11.211450560244542</v>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5.2604098518504889</v>
       </c>
       <c r="B4">
         <v>9.3140404323050898</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7.6395511942995071</v>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3.8197803924587501</v>
       </c>
       <c r="B5">
         <v>5.9314291862627844</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.4368813099638822</v>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.93879376890966915</v>
       </c>
       <c r="B6">
         <v>1.3839600217357073</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-0.44712696615332248</v>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>-1.0403160789632357</v>
       </c>
       <c r="B7">
         <v>0.41893651552769245</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-2.2848925041171047</v>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>-0.58455851869967623</v>
       </c>
       <c r="B8">
         <v>-2.9108084158070655</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-3.535440342923287</v>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>-1.5391154593579748</v>
       </c>
       <c r="B9">
         <v>-2.6679364802139292</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2.0847655892288586</v>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3.7034250832044489</v>
       </c>
       <c r="B10">
         <v>-2.1044547681183747</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6.7787555512267561</v>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7.0489756921939799</v>
       </c>
       <c r="B11">
         <v>-1.135181414448909</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12.153129378242406</v>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.812586570180331</v>
       </c>
       <c r="B12">
         <v>1.5491203653895089</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>16.740761699189459</v>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12.550773518477948</v>
       </c>
       <c r="B13">
         <v>3.4464694024788587</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>17.936877768305333</v>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10.0432284123457</v>
       </c>
       <c r="B14">
         <v>7.6535599734263355</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>16.970250976955452</v>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>8.7552175873769311</v>
       </c>
       <c r="B15">
         <v>9.1651756546132024</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13.128607556535988</v>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>7.0020328118502739</v>
       </c>
       <c r="B16">
         <v>7.3662742779037993</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10.728149987210973</v>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5.3238951452715515</v>
       </c>
       <c r="B17">
         <v>6.5558409038316583</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6.8492746445269104</v>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5.0363513521010272</v>
       </c>
       <c r="B18">
         <v>4.1294696018066892</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4.805780631137238</v>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3.5331176966366131</v>
       </c>
       <c r="B19">
         <v>2.0619287202735608</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4.5387619467266171</v>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2.212701918762054</v>
       </c>
       <c r="B20">
         <v>2.9285226473404342</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6.6875209132059021</v>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5.225163474638931</v>
       </c>
       <c r="B21">
         <v>2.0057436827434874</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7.5349885494486539</v>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6.0058599086690316</v>
       </c>
       <c r="B22">
         <v>0.71576873678801112</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8.166027121136489</v>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>6.5619078759205145</v>
       </c>
       <c r="B23">
         <v>0.86548047296230912</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>6.187469662158251</v>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5.2791617322183786</v>
       </c>
       <c r="B24">
         <v>0.4114462509094412</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1.3453831211464609</v>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.5226930813263988</v>
       </c>
       <c r="B25">
         <v>0.96943339385733363</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>-0.68147549804714047</v>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>-1.7979924635508053</v>
       </c>
       <c r="B26">
         <v>1.1198325310029535</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>-1.4470536739004269</v>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>-2.4587580983275825</v>
       </c>
       <c r="B27">
         <v>0.63492276786587443</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-4.4747477947827359E-2</v>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>-0.77129797282806878</v>
       </c>
       <c r="B28">
         <v>0.26095075385740735</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3.5039679660201246</v>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2.6920562280680644</v>
       </c>
       <c r="B29">
         <v>-0.8570948686561155</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>6.9485295867082382</v>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>5.9873268629801801</v>
       </c>
       <c r="B30">
         <v>-0.63303134499568225</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>8.7744902050393794</v>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>7.4924164696127411</v>
       </c>
       <c r="B31">
         <v>-0.2609507538574205</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>9.5601700393113074</v>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>7.7108395019177056</v>
       </c>
       <c r="B32">
         <v>-0.3729955835063789</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8.9344373356417979</v>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>6.3716470164912593</v>
       </c>
       <c r="B33">
         <v>0.37355291850874484</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>6.2572954709410462</v>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>3.1662933536814166</v>
       </c>
       <c r="B34">
         <v>0.22388069052715104</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>5.6445679397480166</v>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2.3750296377511866</v>
       </c>
       <c r="B35">
         <v>0.5212223266990248</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4.7591723029276247</v>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.94350688638819014</v>
       </c>
       <c r="B36">
         <v>1.9612099460219332</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>5.2088805765082338</v>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1.9771505518465162</v>
       </c>
       <c r="B37">
         <v>2.5401697082950654</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6.6065083854475946</v>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>3.0041749432761735</v>
       </c>
       <c r="B38">
         <v>3.0828129361301868</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5.669057699122666</v>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1.9616155102823223</v>
       </c>
       <c r="B39">
         <v>3.6460473133577858</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6.0832285872273584</v>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>3.0265108911758012</v>
       </c>
       <c r="B40">
         <v>3.2446970405774165</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>3.0795942230069562</v>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.35407099392395108</v>
       </c>
       <c r="B41">
         <v>2.9018693889035685</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>-0.47774647875654264</v>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>-2.9143477535811781</v>
       </c>
       <c r="B42">
         <v>3.4455548293610341</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-9.9575954819685689E-3</v>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>-2.040216380720592</v>
       </c>
       <c r="B43">
         <v>3.5523341246252365</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1.3158370829325223</v>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>-0.72860394835640774</v>
       </c>
       <c r="B44">
         <v>2.4528209352122703</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5.0689254888068787</v>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>2.6226351547229751</v>
       </c>
       <c r="B45">
         <v>2.0619287202735608</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>8.7572668723709288</v>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>7.1530640182493332</v>
       </c>
       <c r="B46">
         <v>1.2836256040867788</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>10.198538961141976</v>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>8.7267321945222331</v>
       </c>
       <c r="B47">
         <v>0.13812156891984331</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>7.758161252142699</v>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>6.5096704548661286</v>
       </c>
       <c r="B48">
         <v>0.89593983183573356</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>5.6514300033143776</v>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>4.4829336422805959</v>
       </c>
       <c r="B49">
         <v>1.5104990245850793</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>6.140328397875086</v>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>4.8064150117580207</v>
       </c>
       <c r="B50">
         <v>1.2333147077216073</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3.4649378279797194</v>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>2.0381845197350694</v>
       </c>
       <c r="B51">
         <v>1.9139340210697287</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3.8430415481253193</v>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>2.4572170732235157</v>
       </c>
       <c r="B52">
         <v>1.3628831055605837</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2.1701885674201469</v>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>0.88120730400564462</v>
       </c>
       <c r="B53">
         <v>1.353658571753332</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0.43579623724314137</v>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>-0.66976112469139226</v>
       </c>
       <c r="B54">
         <v>1.5876030125031355</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2.6382471678522488</v>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1.5536527495419081</v>
       </c>
       <c r="B55">
         <v>0.9098630586746419</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>3.9636256510383854</v>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>2.9670772548941864</v>
       </c>
       <c r="B56">
         <v>1.2443409254169406</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>7.2148831806752494</v>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>6.2011884910053849</v>
       </c>
       <c r="B57">
         <v>0.77013606828129844</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>8.6082383004262759</v>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>7.2963811540730656</v>
       </c>
       <c r="B58">
         <v>0.66800515603737876</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>7.7589855342256318</v>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>6.5134649350167368</v>
       </c>
       <c r="B59">
         <v>1.332908770860062</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>7.0332907311439667</v>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>5.8333743391307715</v>
       </c>
       <c r="B60">
         <v>0.99768037383170005</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>5.3106974572363548</v>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>4.2195580177950003</v>
       </c>
       <c r="B61">
         <v>1.3254004493175149</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>4.5511417816432074</v>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>3.5377856156853849</v>
       </c>
       <c r="B62">
         <v>1.3227706097551126</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>4.7786621849342188</v>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>3.7532616104544627</v>
       </c>
       <c r="B63">
         <v>0.88977354198647896</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>5.6525327840380468</v>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>4.7061980463984607</v>
       </c>
       <c r="B64">
         <v>1.5432911787051382</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>6.5822851516530649</v>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>5.0311005644559756</v>
       </c>
       <c r="B65">
         <v>1.2105497084900081</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>7.4599382984780442</v>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>6.031718299590203</v>
       </c>
       <c r="B66">
         <v>1.6292312151434971</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>7.4814803353792652</v>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>5.998737032848994</v>
       </c>
       <c r="B67">
         <v>1.530226831215963</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>7.1242822759263316</v>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>5.37425045486148</v>
       </c>
       <c r="B68">
         <v>1.069528911674795</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>6.423043607211226</v>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>5.0292014784131656</v>
       </c>
       <c r="B69">
         <v>1.1960705057663914</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>6.9165041712974498</v>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>5.3335058567953588</v>
       </c>
       <c r="B70">
         <v>1.092907053219023</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>7.3165249310367209</v>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>5.5058807565950891</v>
       </c>
       <c r="B71">
         <v>1.3797748174281397</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>7.9539379912657013</v>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>6.1541705239898574</v>
       </c>
       <c r="B72">
         <v>1.7891851079103156</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>10.155631789422415</v>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>8.1232190654087955</v>
       </c>
       <c r="B73">
         <v>1.6887449279994167</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>10.308791198335685</v>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>8.1368162698672606</v>
       </c>
       <c r="B74">
         <v>1.89999382449039</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>9.7512530900274044</v>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>7.2221494121550194</v>
       </c>
       <c r="B75">
         <v>2.8277096096861483</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>8.9692647155201719</v>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>5.8666079537999742</v>
       </c>
       <c r="B76">
         <v>2.7176434322603193</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>7.6596821774911064</v>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>4.4059017519470807</v>
       </c>
       <c r="B77">
         <v>3.7213596340434489</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>5.90889369716679</v>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2.8831054316743558</v>
       </c>
       <c r="B78">
         <v>3.1493803849311974</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>5.3220487898198794</v>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>2.6035493094089537</v>
       </c>
       <c r="B79">
         <v>2.508543898126923</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>5.4136055451713458</v>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2.7019110053594422</v>
       </c>
       <c r="B80">
         <v>2.8855456832555535</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>5.6159677735307962</v>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2.6358806395078869</v>
       </c>
       <c r="B81">
         <v>2.5546092427696574</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>7.4416850034823696</v>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>3.7727437977042042</v>
       </c>
       <c r="B82">
         <v>3.5824726518145007</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>9.5805516217401685</v>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>5.3679868475007453</v>
       </c>
       <c r="B83">
         <v>3.8523281996335457</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>9.4331193966105271</v>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>5.1978926565988557</v>
       </c>
       <c r="B84">
         <v>4.3930929225726718</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>9.3707279315287515</v>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>4.838871364356188</v>
       </c>
       <c r="B85">
         <v>4.6385126580934912</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>8.8299235950614303</v>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>4.3724346281958599</v>
       </c>
       <c r="B86">
         <v>4.5853304496122247</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>7.689016299156477</v>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>3.0187536778468251</v>
       </c>
       <c r="B87">
         <v>5.3761176891452305</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>7.9941333076798706</v>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2.9050033174874104</v>
       </c>
       <c r="B88">
         <v>5.3011015966503665</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>6.9929593664110694</v>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2.023593878280523</v>
       </c>
       <c r="B89">
         <v>5.5110362710518883</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>5.661766563065056</v>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>0.32227160870755067</v>
       </c>
       <c r="B90">
         <v>5.9800423302787067</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>5.6222800465056713</v>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>0.16099494144120957</v>
       </c>
       <c r="B91">
         <v>5.8840500022933604</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>5.3039464962029612</v>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0.4204585139143539</v>
       </c>
       <c r="B92">
         <v>5.5496405449515445</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>4.7462422665586361</v>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>-0.16749266846293095</v>
       </c>
       <c r="B93">
         <v>5.4772489654118308</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>7.6837717674388166</v>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2.6614265175410701</v>
       </c>
       <c r="B94">
         <v>5.1425211807437181</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>7.9997808596096887</v>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>3.0591679545079127</v>
       </c>
       <c r="B95">
         <v>4.0718093018784973</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>8.0986607978607843</v>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2.9610033403684155</v>
       </c>
       <c r="B96">
         <v>4.2773815983286445</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>8.9303039936065503</v>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>4.2729484717477249</v>
       </c>
       <c r="B97">
         <v>3.7364246744867984</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>8.0739082380519065</v>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>3.4135749556559696</v>
       </c>
       <c r="B98">
         <v>3.2061932459663094</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>9.0953578605673595</v>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>5.1181376303796462</v>
       </c>
       <c r="B99">
         <v>3.4317092924129158</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>9.1538726013495317</v>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>5.2387154258937318</v>
       </c>
       <c r="B100">
         <v>2.9128272923023637</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>11.015168654356678</v>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>6.6646978834756538</v>
       </c>
       <c r="B101">
         <v>3.1290157993210257</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>11.275383368733515</v>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>7.2889660595024424</v>
       </c>
       <c r="B102">
         <v>3.5760663879098256</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>11.018889869922221</v>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>6.1279031515783249</v>
       </c>
       <c r="B103">
         <v>5.1654674864891934</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>10.527388324784367</v>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>4.6610164698615497</v>
       </c>
       <c r="B104">
         <v>5.5828449552941892</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>10.517696411099076</v>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>3.9451987001785116</v>
       </c>
       <c r="B105">
         <v>7.7487495478374333</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>7.9324197848250764</v>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>0.63696547366538914</v>
       </c>
       <c r="B106">
         <v>9.1684282689022076</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>7.896168689509631</v>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>-0.20847886113867301</v>
       </c>
       <c r="B107">
         <v>9.5934075010170936</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>8.4347722704764987</v>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>-0.63102662414851707</v>
       </c>
       <c r="B108">
         <v>10.919929196499181</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>8.0271477647784959</v>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>-1.9649426035491031</v>
       </c>
       <c r="B109">
         <v>11.19179162039854</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>8.0438539362202217</v>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>-2.3266287853500964</v>
       </c>
       <c r="B110">
         <v>11.111316814727619</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>7.6593352046990288</v>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>-1.8518844390082996</v>
       </c>
       <c r="B111">
         <v>9.70097364404063</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>9.1685614026893703</v>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>0.79544333420235258</v>
       </c>
       <c r="B112">
         <v>9.1059965515630097</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>9.6550625061730475</v>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>2.522705628884677</v>
       </c>
       <c r="B113">
         <v>7.3687715791159123</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>11.907830801159227</v>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>5.9723540890637841</v>
       </c>
       <c r="B114">
         <v>6.4777498316388096</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>11.454769772785445</v>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>5.9908927107689003</v>
       </c>
       <c r="B115">
         <v>5.6843898976528893</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>9.8365902898937385</v>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>4.8392531797770504</v>
       </c>
       <c r="B116">
         <v>5.4067221270275789</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>9.3377936110942752</v>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>4.2211582122341582</v>
       </c>
       <c r="B117">
         <v>5.320403606346467</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>8.8350963144263108</v>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>3.1758705342701523</v>
       </c>
       <c r="B118">
         <v>5.0665857446785614</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>10.427270009642903</v>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>4.3684813983751738</v>
       </c>
       <c r="B119">
         <v>6.7208749693450098</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>11.594154142155331</v>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>5.6096674180597361</v>
       </c>
       <c r="B120">
         <v>6.4538521137571161</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>11.235157685711172</v>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>4.8916548769896213</v>
       </c>
       <c r="B121">
         <v>6.1944485960524611</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>10.225610867745862</v>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>4.0317340573292375</v>
       </c>
       <c r="B122">
         <v>6.5921720804824293</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>12.585079454717926</v>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>5.9003857092204575</v>
       </c>
       <c r="B123">
         <v>6.2974799161388386</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>12.270981391774235</v>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>5.114009694421993</v>
       </c>
       <c r="B124">
         <v>7.4460353669084896</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>13.494443872493573</v>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>6.4471891289206784</v>
       </c>
       <c r="B125">
         <v>8.5522173438161921</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>13.716736375982039</v>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>6.3072901332080153</v>
       </c>
       <c r="B126">
         <v>8.8472297629304553</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>10.557034656460452</v>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2.6220180469091527</v>
       </c>
       <c r="B127">
         <v>9.9710783115707233</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>10.776071122773171</v>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2.3613527667670158</v>
       </c>
       <c r="B128">
         <v>10.840929850718496</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>9.5030874950403099</v>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>1.2759136491818162</v>
       </c>
       <c r="B129">
         <v>11.396718697815825</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>9.9106480111277264</v>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>1.4105583262964783</v>
       </c>
       <c r="B130">
         <v>12.987508142141207</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>7.6534028400767795</v>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>-0.77808801281490647</v>
       </c>
       <c r="B131">
         <v>13.618367956524969</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>6.8425076543536116</v>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>-1.637072930476104</v>
       </c>
       <c r="B132">
         <v>12.355023937854117</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>9.1727893279033133</v>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>-3.9059158584486726E-2</v>
       </c>
       <c r="B133">
         <v>11.896437070221456</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>11.319520749925729</v>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>1.5873360954083588</v>
       </c>
       <c r="B134">
         <v>11.149550422534222</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>12.269971715397396</v>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2.9254587635312821</v>
       </c>
       <c r="B135">
         <v>9.6545510412317572</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>13.232283992216662</v>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>4.2347729522857875</v>
       </c>
       <c r="B136">
         <v>10.232929175454336</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>9.4306452445372368</v>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>1.2914497916702916</v>
       </c>
       <c r="B137">
         <v>9.7775743576788177</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>4.6924545696272597</v>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>-2.214863059056448</v>
       </c>
       <c r="B138">
         <v>7.9336742236521012</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>5.2191348328421974</v>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>-1.0158879498838167</v>
       </c>
       <c r="B139">
         <v>6.4117557123777242</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>3.1906765952889367</v>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>-2.5892760433815996</v>
       </c>
       <c r="B140">
         <v>6.3513405722325933</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>3.6435601829524287</v>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>-1.4536989447773196</v>
       </c>
       <c r="B141">
         <v>4.9096021336520401</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>5.9032967453493121</v>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>1.4213243254125829</v>
       </c>
       <c r="B142">
         <v>3.6405476385009758</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>7.147664001039403</v>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>3.2162009857658651</v>
       </c>
       <c r="B143">
         <v>3.9220713153281328</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>9.1583186371538403</v>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>5.5784381592543735</v>
       </c>
       <c r="B144">
         <v>2.3315805313616846</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>10.907855411397762</v>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>7.6031572000737508</v>
       </c>
       <c r="B145">
         <v>2.7150989065950899</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>11.790186784035386</v>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>8.2299038226316075</v>
       </c>
       <c r="B146">
         <v>4.2006175634155003</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>11.365077420268022</v>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>7.6928928781996486</v>
       </c>
       <c r="B147">
         <v>4.4539771371770742</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>10.173417285226693</v>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>6.6730481656155973</v>
       </c>
       <c r="B148">
         <v>4.2183792303504903</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>8.9152179155854778</v>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>5.4257512601294264</v>
       </c>
       <c r="B149">
         <v>4.1773922245637269</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>7.9202156686878942</v>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>4.4541362816872185</v>
       </c>
       <c r="B150">
         <v>3.4652167705572237</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>6.8733510306697747</v>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>3.6177507791137562</v>
       </c>
       <c r="B151">
         <v>3.5191458336313328</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>7.145576413237416</v>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>4.1740836983977632</v>
       </c>
       <c r="B152">
         <v>3.3997608541419839</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>6.8816907022158498</v>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>4.097359959352711</v>
       </c>
       <c r="B153">
         <v>3.1837895097608744</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>6.3588373566178511</v>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>4.0624603830993893</v>
       </c>
       <c r="B154">
         <v>3.8965968533383708</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>5.6677286884535008</v>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>3.6351259301209207</v>
       </c>
       <c r="B155">
         <v>1.5762959665257554</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>4.9128212159500126</v>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>3.0715208380883374</v>
       </c>
       <c r="B156">
         <v>1.6574965094212599</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>4.6930067300511098</v>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2.8657810719308929</v>
       </c>
       <c r="B157">
         <v>1.5546723738299957</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>4.6435392818659471</v>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2.6754727159235419</v>
       </c>
       <c r="B158">
         <v>1.3556466083608028</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>5.5795896166554959</v>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>3.298593913490544</v>
       </c>
       <c r="B159">
         <v>3.6137626918566834</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>5.8356096939617146</v>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>3.2099126014479276</v>
       </c>
       <c r="B160">
         <v>3.8517972435674919</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7.2529344744609316</v>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>4.3773369179919577</v>
       </c>
       <c r="B161">
         <v>4.2635231644435958</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>7.174021032056821</v>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>4.1537814067132066</v>
       </c>
       <c r="B162">
         <v>4.0462863613180868</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>7.6842205091120181</v>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>4.3868484221911217</v>
       </c>
       <c r="B163">
         <v>3.9152456097181618</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>7.8384699284068757</v>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>4.1076683093611202</v>
       </c>
       <c r="B164">
         <v>4.0470438882955415</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7.527258779627763</v>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>3.7289415135087949</v>
       </c>
       <c r="B165">
         <v>4.1725933670218645</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>8.2786316744005024</v>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>4.2246546180547258</v>
       </c>
       <c r="B166">
         <v>4.3851882528849409</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7.8249027049100137</v>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>3.6793836305368712</v>
       </c>
       <c r="B167">
         <v>4.9115156047495612</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7.5189800713509571</v>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>3.8331297617681921</v>
       </c>
       <c r="B168">
         <v>4.9392755329576472</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>6.2411194072269982</v>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>2.7062601264608346</v>
       </c>
       <c r="B169">
         <v>4.4850566165351715</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>6.352266226498557</v>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>2.7819489800488557</v>
       </c>
       <c r="B170">
         <v>5.0674290963266806</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>6.0085518433774583</v>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>2.3840590836980944</v>
       </c>
       <c r="B171">
         <v>4.6039876754734017</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>5.4622948207668305</v>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>1.7126129555510059</v>
       </c>
       <c r="B172">
         <v>4.7067510857985733</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>4.3828774013336913</v>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>0.60125158864770678</v>
       </c>
       <c r="B173">
         <v>6.184350528270306</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>2.7290684433316459</v>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>-0.95474057241223687</v>
       </c>
       <c r="B174">
         <v>5.49337188178374</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>2.7607531179353231</v>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>-0.54038826668989448</v>
       </c>
       <c r="B175">
         <v>4.6978335021011297</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>3.1230780147120303</v>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>-0.10286175491109455</v>
       </c>
       <c r="B176">
         <v>4.2751166952663908</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>4.2357170273555713</v>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>1.1596511447068543</v>
       </c>
       <c r="B177">
         <v>2.8087581810261422</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>5.2910645567334669</v>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2.8188319017002303</v>
       </c>
       <c r="B178">
         <v>2.6375155254394413</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>5.461132023021686</v>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>3.1206335715651301</v>
       </c>
       <c r="B179">
         <v>3.1332253360270417</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>5.6496023930413672</v>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>3.599807836098956</v>
       </c>
       <c r="B180">
         <v>3.1083095058388595</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>6.4333028035347333</v>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>4.2893243736197544</v>
       </c>
       <c r="B181">
         <v>3.2272431404849899</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>5.5978759798996718</v>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>3.265987057683116</v>
       </c>
       <c r="B182">
         <v>3.2019811234771574</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>5.0942277267238483</v>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>2.7680030757544456</v>
       </c>
       <c r="B183">
         <v>3.1075946960522742</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>4.6921108881645477</v>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2.2607628233562274</v>
       </c>
       <c r="B184">
         <v>2.8072018778686307</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>4.8632607251812292</v>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>2.574289753032251</v>
       </c>
       <c r="B185">
         <v>2.7150989065950899</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>5.5802110633555557</v>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>3.3731704300849894</v>
       </c>
       <c r="B186">
         <v>2.4214258120594532</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>6.2341761171030372</v>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>4.1387697102762102</v>
       </c>
       <c r="B187">
         <v>2.3368761007829404</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>6.3198615396614919</v>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>4.2456321527406988</v>
       </c>
       <c r="B188">
         <v>2.6631823180793193</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>6.1052782104645544</v>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>4.0337080374119187</v>
       </c>
       <c r="B189">
         <v>2.5764136936131465</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>5.5573615213729912</v>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>3.4221754802344009</v>
       </c>
       <c r="B190">
         <v>2.8303776162851726</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>4.5066652447291951</v>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>2.3739720692098025</v>
       </c>
       <c r="B191">
         <v>3.07716586667539</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>4.6904202722455111</v>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>2.6382168053396096</v>
       </c>
       <c r="B192">
         <v>2.7908788117076444</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>4.1679348279314441</v>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>2.175945293353915</v>
       </c>
       <c r="B193">
         <v>2.7073294328534812</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>4.4992900258783264</v>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>2.5680513203725903</v>
       </c>
       <c r="B194">
         <v>2.7524673390089935</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>5.7893417806467093</v>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>3.9243592547543344</v>
       </c>
       <c r="B195">
         <v>2.7932962559856813</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>5.670772885719054</v>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>3.9702663219551146</v>
       </c>
       <c r="B196">
         <v>2.8425686497951506</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>6.0793935637053789</v>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>4.3264951521989312</v>
       </c>
       <c r="B197">
         <v>3.0159488306301538</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>6.0912580207944016</v>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>4.2236056129066268</v>
       </c>
       <c r="B198">
         <v>2.9929008777094337</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>5.8740281378135615</v>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>4.2209240322832597</v>
       </c>
       <c r="B199">
         <v>2.4051792318522329</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>6.3306556681501007</v>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>4.5687283709497564</v>
       </c>
       <c r="B200">
         <v>2.1424890084106059</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>5.9473129590913407</v>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>4.3859483709500022</v>
       </c>
       <c r="B201">
         <v>2.0645087329157716</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>5.8501913856725976</v>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>4.7413282257774112</v>
       </c>
       <c r="B202">
         <v>1.6179568876269268</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>5.1573698676372057</v>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>4.0112527737022052</v>
       </c>
       <c r="B203">
         <v>1.4281521841403815</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>5.1549430962128193</v>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>4.0214956494580436</v>
       </c>
       <c r="B204">
         <v>1.7305747097592428</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>5.8498069527089926</v>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>4.7676463935733651</v>
       </c>
       <c r="B205">
         <v>1.4751343087072764</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>5.9673809372645614</v>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>4.7039459176830842</v>
       </c>
       <c r="B206">
         <v>1.6529301951210507</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>6.0194827856442972</v>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>4.6137944544478069</v>
       </c>
       <c r="B207">
         <v>2.2555055515086369</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>6.0156089314327748</v>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>4.679883275332279</v>
       </c>
       <c r="B208">
         <v>2.121934722674172</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>6.3183765406282522</v>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>4.710850593386426</v>
       </c>
       <c r="B209">
         <v>2.5302554664785903</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>6.0851285618288138</v>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>4.1379389814468395</v>
       </c>
       <c r="B210">
         <v>2.754665195549507</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>7.3008294751449032</v>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>5.1115618309878297</v>
       </c>
       <c r="B211">
         <v>2.9693392925146349</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>6.3159762911195401</v>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>3.8962721727815861</v>
       </c>
       <c r="B212">
         <v>3.5360195395884495</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>5.2685008800247974</v>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>2.8641821841638357</v>
       </c>
       <c r="B213">
         <v>3.3921380945667385</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>4.5733118419020675</v>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>2.1737080384444227</v>
       </c>
       <c r="B214">
         <v>3.6536392061926453</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>3.3704415228320026</v>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>0.99136799542361531</v>
       </c>
       <c r="B215">
         <v>3.1675553451145739</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>2.6761257051496887</v>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>0.4880434208700547</v>
       </c>
       <c r="B216">
         <v>2.685108472284635</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>2.1305202297302843</v>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>0.16717847261687785</v>
       </c>
       <c r="B217">
         <v>2.1053409197832265</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>2.948110043358926</v>
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>1.3283962744207767</v>
       </c>
       <c r="B218">
         <v>1.1888053959589435</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>2.6852011188752116</v>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>1.316672452290659</v>
       </c>
       <c r="B219">
         <v>1.6306237038396301</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>3.5776118902328049</v>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>2.1238037612101954</v>
       </c>
       <c r="B220">
         <v>1.4549781014731147</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>3.6922514905392814</v>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>1.9729338553718316</v>
       </c>
       <c r="B221">
         <v>2.0067563050809172</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>3.5584007517659213</v>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>1.6653133750672771</v>
       </c>
       <c r="B222">
         <v>2.7201233000262568</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>3.8320154327883884</v>
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>1.9361992510070731</v>
       </c>
       <c r="B223">
         <v>2.1518071628942574</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>5.1684289894153679</v>
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>3.1800321048635212</v>
       </c>
       <c r="B224">
         <v>2.0347141330869478</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>6.227915414465321</v>
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>4.2105400852064161</v>
       </c>
       <c r="B225">
         <v>2.0213744784200363</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>6.4905602058138347</v>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>4.2503320325114915</v>
       </c>
       <c r="B226">
         <v>2.0060309446674749</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>6.8332160508926236</v>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>4.1405739791189049</v>
       </c>
       <c r="B227">
         <v>2.2666917564292057</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>6.1903032725642033</v>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>3.4351767090417553</v>
       </c>
       <c r="B228">
         <v>2.897198344333197</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>6.215968996713424</v>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>3.2961791364148354</v>
       </c>
       <c r="B229">
         <v>3.1410620621106937</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>6.8379320405484556</v>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>3.8343821654482033</v>
       </c>
       <c r="B230">
         <v>2.8051587929217305</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>6.4718066912010306</v>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>3.5538322044164752</v>
       </c>
       <c r="B231">
         <v>3.3065200608628338</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>6.5831425555094611</v>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>3.3904673860124981</v>
       </c>
       <c r="B232">
         <v>3.0210630849103315</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>6.1678833115084295</v>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>2.9294074911068142</v>
       </c>
       <c r="B233">
         <v>4.2581452055964464</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>6.3121908037424985</v>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>3.1625662829545496</v>
       </c>
       <c r="B234">
         <v>3.9401361681988982</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>6.2305761311827101</v>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>2.9295698269819184</v>
       </c>
       <c r="B235">
         <v>3.5500685389342279</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>5.3879730374383161</v>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>2.2986552608767981</v>
       </c>
       <c r="B236">
         <v>4.0226640318253946</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>5.2296828143520697</v>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>2.6004535802108721</v>
       </c>
       <c r="B237">
         <v>1.3965314248641347</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>4.4335514619354086</v>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>1.5644237971526631</v>
       </c>
       <c r="B238">
         <v>2.0545147423822501</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>4.6084968169608231</v>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>1.9159035137307965</v>
       </c>
       <c r="B239">
         <v>2.55987849490166</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>4.8818975119286714</v>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>2.340433020653514</v>
       </c>
       <c r="B240">
         <v>2.2914355222603735</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>4.6992264158655139</v>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>2.1109270153313342</v>
       </c>
       <c r="B241">
         <v>3.5470404582237118</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>3.3948616064233406</v>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>1.3828653946150922</v>
       </c>
       <c r="B242">
         <v>4.2050318111453215</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>3.168383362715482</v>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>1.3666296962787265</v>
       </c>
       <c r="B243">
         <v>3.829490949842318</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>2.2733265698404534</v>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>0.26561420506946337</v>
       </c>
       <c r="B244">
         <v>5.3517184454153499</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>-0.72876922547224054</v>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>-2.5739986200986333</v>
       </c>
       <c r="B245">
         <v>3.6631381899317397</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>-1.8920277317490262</v>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>-3.2876841970856376</v>
       </c>
       <c r="B246">
         <v>-0.1136505768311072</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>-3.3132311780002319</v>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>-4.0601575119799493</v>
       </c>
       <c r="B247">
         <v>-0.5779915821649152</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>-3.0676988163606254</v>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>-3.1829379769874819</v>
       </c>
       <c r="B248">
         <v>-1.9781989747510613</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>0.29419568225077469</v>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>0.10551683488553006</v>
       </c>
       <c r="B249">
         <v>-0.22421947830295638</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>2.286122153587403</v>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>1.730210992943491</v>
       </c>
       <c r="B250">
         <v>2.5873489607178453</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>4.0804560539926129</v>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>2.8719566969670907</v>
       </c>
       <c r="B251">
         <v>2.1827739611836412</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>4.6829343722001289</v>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>3.2895068127534302</v>
       </c>
       <c r="B252">
         <v>1.3318695897959598</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>4.3946264648047393</v>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>2.7381296392741219</v>
       </c>
       <c r="B253">
         <v>1.1599417381349781</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>3.897670080117928</v>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>2.0173119436013178</v>
       </c>
       <c r="B254">
         <v>1.6864820984662861</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>3.7816482436393217</v>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>1.7286807082070506</v>
       </c>
       <c r="B255">
         <v>3.0308370223773489</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>3.2876278140612731</v>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>0.9382382121283851</v>
       </c>
       <c r="B256">
         <v>3.5172925914501225</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>3.4209137404549397</v>
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>1.5312915288296665</v>
       </c>
       <c r="B257">
         <v>3.4616554596579459</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>4.567001298713592</v>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>2.6038723843135974</v>
       </c>
       <c r="B258">
         <v>2.9643908697416395</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>4.0904999062600105</v>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>2.374910264079289</v>
       </c>
       <c r="B259">
         <v>2.2477119945619268</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>4.2040560954836579</v>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>2.5411498661439715</v>
       </c>
       <c r="B260">
         <v>1.4075587298480354</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>3.584463150581521</v>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>1.5399339265725158</v>
       </c>
       <c r="B261">
         <v>2.1327719237692166</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>3.5421626923039891</v>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>1.6865656712451937</v>
       </c>
       <c r="B262">
         <v>1.6700386614722407</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>3.1674686799403524</v>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>1.5085028711265831</v>
       </c>
       <c r="B263">
         <v>1.1323724421043693</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>3.8131014732922615</v>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>2.2123681498900609</v>
       </c>
       <c r="B264">
         <v>1.8679171018338441</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>4.5919643144690934</v>
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>2.9647584321411893</v>
       </c>
       <c r="B265">
         <v>0.87297758183500074</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>3.2476421801155642</v>
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>1.6373396906237589</v>
       </c>
       <c r="B266">
         <v>1.5457502818112003</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>4.6132891914989989</v>
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>2.6536298870249881</v>
       </c>
       <c r="B267">
         <v>1.9950903592962828</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>4.8941718309228257</v>
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>3.0139050643532315</v>
       </c>
       <c r="B268">
         <v>1.9550025496311585</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>4.1030025233030276</v>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>2.6503996420704317</v>
       </c>
       <c r="B269">
         <v>1.5967259137863035</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>4.9117069565030418</v>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>3.8925472447287564</v>
       </c>
       <c r="B270">
         <v>-0.23019572538082253</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>4.2537827699041291</v>
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>3.2264728800674822</v>
       </c>
       <c r="B271">
         <v>-0.10408513918598254</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>3.3003073093200657</v>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>2.4178542590584891</v>
       </c>
       <c r="B272">
         <v>0.22543182246149673</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>2.8783173436810037</v>
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>2.0977048302256365</v>
       </c>
       <c r="B273">
         <v>0.12753519995019924</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>2.5276601178259179</v>
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>1.7790966943803166</v>
       </c>
       <c r="B274">
         <v>1.2299080308037831</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>2.3353353782197277</v>
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>1.4822116023941143</v>
       </c>
       <c r="B275">
         <v>1.1658037736477613</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>2.6333345026839345</v>
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>1.7896513099354674</v>
       </c>
       <c r="B276">
         <v>0.8646147538590877</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>3.4873643913426595</v>
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>2.1581106658460683</v>
       </c>
       <c r="B277">
         <v>1.6718709909869081</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>3.9901111733003711</v>
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>2.0659727471025406</v>
       </c>
       <c r="B278">
         <v>2.4794005969470683</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>3.8113888523265285</v>
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>2.3036742821328668</v>
       </c>
       <c r="B279">
         <v>2.1528817669153053</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>4.1470301452708389</v>
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>2.3822198887072559</v>
       </c>
       <c r="B280">
         <v>1.7103963201701737</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>4.8452849188937082</v>
+      <c r="C280" s="2"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>2.95019413702556</v>
       </c>
       <c r="B281">
         <v>2.0006113975012934</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>5.2953803485212578</v>
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>3.2746048588388357</v>
       </c>
       <c r="B282">
         <v>2.1285046284350315</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>5.7101052223738815</v>
+      <c r="C282" s="2"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>3.2457149879179825</v>
       </c>
       <c r="B283">
         <v>2.4409609642524877</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>5.4649250395522735</v>
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>3.0820439447557475</v>
       </c>
       <c r="B284">
         <v>2.814153417360842</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>4.3018717874431562</v>
+      <c r="C284" s="2"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>2.1028451661348386</v>
       </c>
       <c r="B285">
         <v>2.4614877571210529</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>3.744244857332685</v>
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>1.8343573644428033</v>
       </c>
       <c r="B286">
         <v>1.4766332681220313</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>3.8315175937188153</v>
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>2.1311814699061431</v>
       </c>
       <c r="B287">
         <v>1.9808347575986145</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>4.2156796368566605</v>
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>2.6352354309708037</v>
       </c>
       <c r="B288">
         <v>1.8098542197342107</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>4.5992089136609797</v>
+      <c r="C288" s="2"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>3.1329622443018761</v>
       </c>
       <c r="B289">
         <v>1.7191119291485153</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>2.8143455684867136</v>
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>1.2190935545125128</v>
       </c>
       <c r="B290">
         <v>2.4812257762911196</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>-7.1299254240881602</v>
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>-7.8269266763675374</v>
       </c>
       <c r="B291">
         <v>0.34926574394235027</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>-0.21522819410290686</v>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>-1.4798271063335251</v>
       </c>
       <c r="B292">
         <v>1.0136023459060675</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>0.55597976088875845</v>
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>-1.0891952846602839</v>
       </c>
       <c r="B293">
         <v>1.1959849092291492</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>4.0345738322656439</v>
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>1.5603699850327457</v>
       </c>
       <c r="B294">
         <v>1.3854589649349116</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>15.674552968189348</v>
+      <c r="C294" s="2"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>11.288458859922414</v>
       </c>
       <c r="B295">
         <v>4.0649876915713739</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>9.6005751666911241</v>
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>4.6266189191381804</v>
       </c>
       <c r="B296">
         <v>5.1240276047643052</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>11.280805643901775</v>
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>5.2792541887775091</v>
       </c>
       <c r="B297">
         <v>6.0333229430113056</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>10.20816951156994</v>
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>3.5030040743257893</v>
       </c>
       <c r="B298">
         <v>7.2969443117901589</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>9.2287647125614747</v>
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>1.8533179251558525</v>
       </c>
       <c r="B299">
         <v>7.9290357698398219</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>8.6988131207916588</v>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>1.6987031302935833</v>
       </c>
       <c r="B300">
         <v>8.1117379969441696</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>6.8718713359089092</v>
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>0.64957733021296049</v>
       </c>
       <c r="B301">
         <v>7.4661554794199185</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>6.8869471581095549</v>
+      <c r="C301" s="2"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>1.7033377851582185</v>
       </c>
       <c r="B302">
         <v>6.1679343563257598</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>5.7754781955686143</v>
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>2.3545302578835097</v>
       </c>
       <c r="B303">
         <v>4.8228664984886631</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>6.0292337479532314</v>
+      <c r="C303" s="2"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>2.8848715220253016</v>
       </c>
       <c r="B304">
         <v>3.2193972872251382</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>5.6985213238160162</v>
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>3.0863689458326053</v>
       </c>
       <c r="B305">
         <v>3.1942245920578505</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>5.2394017504693329</v>
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>2.8423049869865462</v>
       </c>
       <c r="B306">
         <v>3.0587214047342126</v>
       </c>
+      <c r="C306" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
